--- a/2026/AWO_Einnahmen_Ausgaben_2026.xlsx
+++ b/2026/AWO_Einnahmen_Ausgaben_2026.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHubDesktopFiles\AWO\2026\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EB72A3C-D101-4757-9D2E-16C9EBAD06ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A7C114C-FEE2-487D-89A9-4A019681F86A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Einnahmen" sheetId="4" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="65">
   <si>
     <t>T. z. g. Laune</t>
   </si>
@@ -196,6 +196,39 @@
   </si>
   <si>
     <t>W.feier Tombola</t>
+  </si>
+  <si>
+    <t>Umbbuchung</t>
+  </si>
+  <si>
+    <t>Internet</t>
+  </si>
+  <si>
+    <t>Vereinsring</t>
+  </si>
+  <si>
+    <t>Kassensystem Sum Up</t>
+  </si>
+  <si>
+    <t>W.feier Musikerheim 2025</t>
+  </si>
+  <si>
+    <t>Spende W.baum team</t>
+  </si>
+  <si>
+    <t>Spende Ritter</t>
+  </si>
+  <si>
+    <t>Ehrennadeln</t>
+  </si>
+  <si>
+    <t>Wasserhahn</t>
+  </si>
+  <si>
+    <t>Aufkleber</t>
+  </si>
+  <si>
+    <t>Helferessen</t>
   </si>
 </sst>
 </file>
@@ -4889,9 +4922,9 @@
   </sheetPr>
   <dimension ref="A1:IJ175"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F6" sqref="F6"/>
+      <selection pane="bottomLeft" activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.88671875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -5022,14 +5055,22 @@
       </c>
     </row>
     <row r="6" spans="1:10" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="14"/>
+      <c r="A6" s="14">
+        <v>46041</v>
+      </c>
       <c r="B6" s="48">
         <v>3</v>
       </c>
-      <c r="C6" s="81"/>
-      <c r="D6" s="18"/>
+      <c r="C6" s="81" t="s">
+        <v>54</v>
+      </c>
+      <c r="D6" s="18" t="s">
+        <v>27</v>
+      </c>
       <c r="E6" s="19"/>
-      <c r="F6" s="20"/>
+      <c r="F6" s="20">
+        <v>3000</v>
+      </c>
       <c r="G6" s="17"/>
       <c r="H6" s="17"/>
       <c r="I6" s="2"/>
@@ -5038,30 +5079,46 @@
       </c>
     </row>
     <row r="7" spans="1:10" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="14"/>
+      <c r="A7" s="14">
+        <v>46048</v>
+      </c>
       <c r="B7" s="48">
         <v>4</v>
       </c>
-      <c r="C7" s="3"/>
-      <c r="D7" s="18"/>
+      <c r="C7" s="81" t="s">
+        <v>46</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>0</v>
+      </c>
       <c r="E7" s="19"/>
       <c r="F7" s="20"/>
       <c r="G7" s="17"/>
-      <c r="H7" s="17"/>
+      <c r="H7" s="17">
+        <v>85</v>
+      </c>
       <c r="I7" s="2"/>
       <c r="J7" s="2" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:10" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="14"/>
+      <c r="A8" s="14">
+        <v>46058</v>
+      </c>
       <c r="B8" s="48">
         <v>5</v>
       </c>
-      <c r="C8" s="3"/>
-      <c r="D8" s="18"/>
+      <c r="C8" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D8" s="18" t="s">
+        <v>12</v>
+      </c>
       <c r="E8" s="19"/>
-      <c r="F8" s="20"/>
+      <c r="F8" s="20">
+        <v>400</v>
+      </c>
       <c r="G8" s="17"/>
       <c r="H8" s="17"/>
       <c r="I8" s="2"/>
@@ -5070,14 +5127,22 @@
       </c>
     </row>
     <row r="9" spans="1:10" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="14"/>
+      <c r="A9" s="14">
+        <v>46058</v>
+      </c>
       <c r="B9" s="48">
         <v>6</v>
       </c>
-      <c r="C9" s="81"/>
-      <c r="D9" s="18"/>
+      <c r="C9" s="81" t="s">
+        <v>60</v>
+      </c>
+      <c r="D9" s="18" t="s">
+        <v>12</v>
+      </c>
       <c r="E9" s="19"/>
-      <c r="F9" s="20"/>
+      <c r="F9" s="20">
+        <v>700</v>
+      </c>
       <c r="G9" s="17"/>
       <c r="H9" s="17"/>
       <c r="I9" s="2"/>
@@ -5086,16 +5151,22 @@
       </c>
     </row>
     <row r="10" spans="1:10" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="14"/>
+      <c r="A10" s="14">
+        <v>46062</v>
+      </c>
       <c r="B10" s="48">
         <v>7</v>
       </c>
-      <c r="C10" s="3"/>
+      <c r="C10" s="81" t="s">
+        <v>46</v>
+      </c>
       <c r="D10" s="18"/>
       <c r="E10" s="19"/>
       <c r="F10" s="20"/>
       <c r="G10" s="17"/>
-      <c r="H10" s="17"/>
+      <c r="H10" s="17">
+        <v>98</v>
+      </c>
       <c r="I10" s="2"/>
       <c r="J10" s="2" t="s">
         <v>23</v>
@@ -5122,7 +5193,7 @@
       <c r="B12" s="48">
         <v>9</v>
       </c>
-      <c r="C12" s="3"/>
+      <c r="C12" s="81"/>
       <c r="D12" s="18"/>
       <c r="E12" s="19"/>
       <c r="F12" s="20"/>
@@ -6514,7 +6585,7 @@
       </c>
       <c r="F110" s="26">
         <f>SUM(F3:F109)</f>
-        <v>26.1</v>
+        <v>4126.1000000000004</v>
       </c>
       <c r="G110" s="26">
         <f>SUM(G3:G109)</f>
@@ -6522,7 +6593,7 @@
       </c>
       <c r="H110" s="26">
         <f>SUM(H3:H109)</f>
-        <v>86</v>
+        <v>269</v>
       </c>
       <c r="I110" s="2"/>
       <c r="J110" s="2"/>
@@ -6552,7 +6623,7 @@
       </c>
       <c r="F112" s="26">
         <f>F110+Ausgaben!G176</f>
-        <v>-305.85000000000002</v>
+        <v>2333.9500000000003</v>
       </c>
       <c r="G112" s="26">
         <f>G110+Ausgaben!H176</f>
@@ -6560,7 +6631,7 @@
       </c>
       <c r="H112" s="26">
         <f>H110+Ausgaben!I176</f>
-        <v>-77.41</v>
+        <v>-2894.41</v>
       </c>
       <c r="I112" s="2"/>
       <c r="J112" s="2"/>
@@ -6585,7 +6656,7 @@
       <c r="C114" s="22"/>
       <c r="D114" s="27">
         <f>SUM(E112:H112)</f>
-        <v>-383.26</v>
+        <v>-560.45999999999958</v>
       </c>
       <c r="E114" s="16"/>
       <c r="F114" s="17"/>
@@ -7429,13 +7500,13 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H4:H26 D6:D60 G15:G23 H33:H109 E53:F57 D60:G67 D68:D76 E72:G76 A93:A96">
+  <conditionalFormatting sqref="D6 G15:G23 H33:H109 E53:F57 D60:G67 D68:D76 E72:G76 A93:A96 D8:D60 H4:H26">
     <cfRule type="cellIs" dxfId="19" priority="55" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D3 D6:D109" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D3 D6 D8:D109" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>$J$1:$J$19</formula1>
     </dataValidation>
   </dataValidations>
@@ -7458,9 +7529,9 @@
   </sheetPr>
   <dimension ref="A1:IL242"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G13" sqref="G13"/>
+      <selection pane="bottomLeft" activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.88671875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -7791,16 +7862,24 @@
     </row>
     <row r="13" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="41"/>
-      <c r="B13" s="14"/>
+      <c r="B13" s="14">
+        <v>46041</v>
+      </c>
       <c r="C13" s="48">
         <v>11</v>
       </c>
-      <c r="D13" s="81"/>
-      <c r="E13" s="82"/>
+      <c r="D13" s="81" t="s">
+        <v>54</v>
+      </c>
+      <c r="E13" s="82" t="s">
+        <v>27</v>
+      </c>
       <c r="F13" s="19"/>
       <c r="G13" s="19"/>
       <c r="H13" s="20"/>
-      <c r="I13" s="20"/>
+      <c r="I13" s="20">
+        <v>-3000</v>
+      </c>
       <c r="J13" s="4"/>
       <c r="K13" s="2"/>
       <c r="L13" s="2" t="s">
@@ -7809,14 +7888,22 @@
     </row>
     <row r="14" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="41"/>
-      <c r="B14" s="14"/>
+      <c r="B14" s="14">
+        <v>42390</v>
+      </c>
       <c r="C14" s="48">
         <v>12</v>
       </c>
-      <c r="D14" s="81"/>
-      <c r="E14" s="82"/>
+      <c r="D14" s="81" t="s">
+        <v>46</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>0</v>
+      </c>
       <c r="F14" s="19"/>
-      <c r="G14" s="20"/>
+      <c r="G14" s="20">
+        <v>-24.35</v>
+      </c>
       <c r="H14" s="20"/>
       <c r="I14" s="20"/>
       <c r="J14" s="4"/>
@@ -7827,14 +7914,22 @@
     </row>
     <row r="15" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="41"/>
-      <c r="B15" s="14"/>
+      <c r="B15" s="14">
+        <v>46045</v>
+      </c>
       <c r="C15" s="48">
         <v>13</v>
       </c>
-      <c r="D15" s="81"/>
-      <c r="E15" s="82"/>
+      <c r="D15" s="81" t="s">
+        <v>55</v>
+      </c>
+      <c r="E15" s="82" t="s">
+        <v>21</v>
+      </c>
       <c r="F15" s="19"/>
-      <c r="G15" s="20"/>
+      <c r="G15" s="20">
+        <v>-4.99</v>
+      </c>
       <c r="H15" s="20"/>
       <c r="I15" s="20"/>
       <c r="J15" s="4"/>
@@ -7845,14 +7940,22 @@
     </row>
     <row r="16" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="41"/>
-      <c r="B16" s="14"/>
+      <c r="B16" s="14">
+        <v>46048</v>
+      </c>
       <c r="C16" s="48">
         <v>14</v>
       </c>
-      <c r="D16" s="81"/>
-      <c r="E16" s="82"/>
+      <c r="D16" s="81" t="s">
+        <v>56</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>13</v>
+      </c>
       <c r="F16" s="19"/>
-      <c r="G16" s="20"/>
+      <c r="G16" s="20">
+        <v>-50</v>
+      </c>
       <c r="H16" s="20"/>
       <c r="I16" s="20"/>
       <c r="J16" s="4"/>
@@ -7863,14 +7966,22 @@
     </row>
     <row r="17" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="41"/>
-      <c r="B17" s="14"/>
+      <c r="B17" s="14">
+        <v>46048</v>
+      </c>
       <c r="C17" s="48">
         <v>15</v>
       </c>
-      <c r="D17" s="81"/>
-      <c r="E17" s="82"/>
+      <c r="D17" s="81" t="s">
+        <v>57</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>13</v>
+      </c>
       <c r="F17" s="19"/>
-      <c r="G17" s="20"/>
+      <c r="G17" s="20">
+        <v>-330.82</v>
+      </c>
       <c r="H17" s="20"/>
       <c r="I17" s="20"/>
       <c r="J17" s="4"/>
@@ -7881,14 +7992,22 @@
     </row>
     <row r="18" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="41"/>
-      <c r="B18" s="14"/>
+      <c r="B18" s="14">
+        <v>46048</v>
+      </c>
       <c r="C18" s="48">
         <v>16</v>
       </c>
-      <c r="D18" s="3"/>
-      <c r="E18" s="21"/>
+      <c r="D18" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>18</v>
+      </c>
       <c r="F18" s="19"/>
-      <c r="G18" s="20"/>
+      <c r="G18" s="20">
+        <v>-705.5</v>
+      </c>
       <c r="H18" s="20"/>
       <c r="I18" s="20"/>
       <c r="J18" s="4"/>
@@ -7899,14 +8018,22 @@
     </row>
     <row r="19" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="41"/>
-      <c r="B19" s="14"/>
+      <c r="B19" s="14">
+        <v>46057</v>
+      </c>
       <c r="C19" s="48">
         <v>17</v>
       </c>
-      <c r="D19" s="81"/>
-      <c r="E19" s="82"/>
+      <c r="D19" s="81" t="s">
+        <v>20</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>20</v>
+      </c>
       <c r="F19" s="19"/>
-      <c r="G19" s="20"/>
+      <c r="G19" s="20">
+        <v>-12</v>
+      </c>
       <c r="H19" s="20"/>
       <c r="I19" s="20"/>
       <c r="J19" s="4"/>
@@ -7917,14 +8044,22 @@
     </row>
     <row r="20" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="41"/>
-      <c r="B20" s="14"/>
+      <c r="B20" s="14">
+        <v>45694</v>
+      </c>
       <c r="C20" s="48">
         <v>18</v>
       </c>
-      <c r="D20" s="3"/>
-      <c r="E20" s="82"/>
+      <c r="D20" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>22</v>
+      </c>
       <c r="F20" s="19"/>
-      <c r="G20" s="20"/>
+      <c r="G20" s="20">
+        <v>-46.5</v>
+      </c>
       <c r="H20" s="20"/>
       <c r="I20" s="20"/>
       <c r="J20" s="4"/>
@@ -7933,14 +8068,22 @@
     </row>
     <row r="21" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="41"/>
-      <c r="B21" s="14"/>
+      <c r="B21" s="14">
+        <v>46062</v>
+      </c>
       <c r="C21" s="48">
         <v>19</v>
       </c>
-      <c r="D21" s="3"/>
-      <c r="E21" s="82"/>
+      <c r="D21" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="E21" s="82" t="s">
+        <v>21</v>
+      </c>
       <c r="F21" s="19"/>
-      <c r="G21" s="20"/>
+      <c r="G21" s="20">
+        <v>-76.989999999999995</v>
+      </c>
       <c r="H21" s="20"/>
       <c r="I21" s="20"/>
       <c r="J21" s="4"/>
@@ -7949,14 +8092,22 @@
     </row>
     <row r="22" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="41"/>
-      <c r="B22" s="14"/>
+      <c r="B22" s="14">
+        <v>46062</v>
+      </c>
       <c r="C22" s="48">
         <v>20</v>
       </c>
-      <c r="D22" s="3"/>
-      <c r="E22" s="82"/>
+      <c r="D22" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>13</v>
+      </c>
       <c r="F22" s="19"/>
-      <c r="G22" s="20"/>
+      <c r="G22" s="20">
+        <v>-113.05</v>
+      </c>
       <c r="H22" s="20"/>
       <c r="I22" s="20"/>
       <c r="J22" s="4"/>
@@ -7965,14 +8116,22 @@
     </row>
     <row r="23" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="41"/>
-      <c r="B23" s="14"/>
+      <c r="B23" s="14">
+        <v>46062</v>
+      </c>
       <c r="C23" s="48">
         <v>21</v>
       </c>
-      <c r="D23" s="3"/>
-      <c r="E23" s="82"/>
+      <c r="D23" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>13</v>
+      </c>
       <c r="F23" s="19"/>
-      <c r="G23" s="20"/>
+      <c r="G23" s="20">
+        <v>-96</v>
+      </c>
       <c r="H23" s="20"/>
       <c r="I23" s="20"/>
       <c r="J23" s="4"/>
@@ -10425,7 +10584,7 @@
       </c>
       <c r="G176" s="32">
         <f>SUM(G3:G175)</f>
-        <v>-331.95000000000005</v>
+        <v>-1792.15</v>
       </c>
       <c r="H176" s="32">
         <f>SUM(H3:H175)</f>
@@ -10433,7 +10592,7 @@
       </c>
       <c r="I176" s="32">
         <f>SUM(I3:I175)</f>
-        <v>-163.41</v>
+        <v>-3163.41</v>
       </c>
       <c r="J176" s="2"/>
       <c r="K176" s="2"/>
@@ -11408,7 +11567,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E3:E4 E123:E129 E144:E161 E7:E8 E11 E13:E121">
+  <conditionalFormatting sqref="E3:E4 E7:E8 E11 E13 E123:E129 E144:E161 E15 E21 E24:E121">
     <cfRule type="cellIs" dxfId="6" priority="2" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
@@ -11444,7 +11603,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E53:E121 E131:E142 E123:E129 E144:E175 E3:E4 E7:E8 E11 E13:E51" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E53:E121 E131:E142 E123:E129 E144:E175 E3:E4 E7:E8 E11 E13 E15 E21 E24:E51" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>$L$1:$L$19</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E52" xr:uid="{2159CF4B-2649-4586-B851-DB145DFC2247}">
